--- a/results/exclude-en.xlsx
+++ b/results/exclude-en.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -568,13 +568,13 @@
         <v>128</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6318082788671024</v>
+        <v>0.5873320537428023</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7125307125307125</v>
+        <v>0.7518427518427518</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7122117192848869</v>
+        <v>0.7328110093655793</v>
       </c>
     </row>
     <row r="3">
@@ -610,7 +610,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -625,13 +625,13 @@
         <v>128</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6297872340425532</v>
+        <v>0.565008025682183</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7114578475122867</v>
+        <v>0.7521096499069877</v>
       </c>
     </row>
     <row r="4">
@@ -667,7 +667,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -682,13 +682,13 @@
         <v>128</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6129666011787819</v>
+        <v>0.5760869565217391</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7665847665847666</v>
+        <v>0.7813267813267813</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7205501929573391</v>
+        <v>0.7407112427379774</v>
       </c>
     </row>
     <row r="5">
@@ -724,7 +724,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -739,13 +739,13 @@
         <v>128</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5938864628820961</v>
+        <v>0.6098654708520179</v>
       </c>
       <c r="P5" t="n">
         <v>0.6683046683046683</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7307549896447555</v>
+        <v>0.7240434092024098</v>
       </c>
     </row>
     <row r="6">
@@ -781,7 +781,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -796,13 +796,13 @@
         <v>128</v>
       </c>
       <c r="O6" t="n">
-        <v>0.616557734204793</v>
+        <v>0.6260162601626016</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6953316953316954</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7183116897292759</v>
+        <v>0.7161745081777158</v>
       </c>
     </row>
     <row r="7">
@@ -838,7 +838,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -853,13 +853,13 @@
         <v>128</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6560364464692483</v>
+        <v>0.6370558375634517</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7076167076167076</v>
+        <v>0.6167076167076168</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.700857358911763</v>
+        <v>0.7134561269179635</v>
       </c>
     </row>
     <row r="8">
@@ -895,7 +895,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -910,13 +910,13 @@
         <v>128</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6320541760722348</v>
+        <v>0.594758064516129</v>
       </c>
       <c r="P8" t="n">
-        <v>0.687960687960688</v>
+        <v>0.7248157248157249</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7098492539447286</v>
+        <v>0.7282343454982924</v>
       </c>
     </row>
     <row r="9">
@@ -952,7 +952,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -967,13 +967,13 @@
         <v>128</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5947712418300654</v>
+        <v>0.6684782608695652</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6707616707616708</v>
+        <v>0.6044226044226044</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7299474804297738</v>
+        <v>0.7019863916480023</v>
       </c>
     </row>
     <row r="10">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1024,13 +1024,13 @@
         <v>128</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6228448275862069</v>
+        <v>0.6378132118451025</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7100737100737101</v>
+        <v>0.687960687960688</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7151348487190579</v>
+        <v>0.7093740312949471</v>
       </c>
     </row>
     <row r="11">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1081,13 +1081,13 @@
         <v>128</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6258992805755396</v>
+        <v>0.6527777777777778</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6412776412776413</v>
+        <v>0.6928746928746928</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7146566582762677</v>
+        <v>0.7005804777145386</v>
       </c>
     </row>
     <row r="12">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1138,13 +1138,13 @@
         <v>128</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5798922800718133</v>
+        <v>0.6160164271047228</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7936117936117936</v>
+        <v>0.7371007371007371</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7416142722834711</v>
+        <v>0.7195805026137311</v>
       </c>
     </row>
     <row r="13">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1195,13 +1195,13 @@
         <v>128</v>
       </c>
       <c r="O13" t="n">
-        <v>0.571157495256167</v>
+        <v>0.5948616600790514</v>
       </c>
       <c r="P13" t="n">
         <v>0.7395577395577395</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7437737407891647</v>
+        <v>0.7309759254040925</v>
       </c>
     </row>
     <row r="14">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1252,13 +1252,13 @@
         <v>128</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6617647058823529</v>
+        <v>0.6102783725910065</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5528255528255528</v>
+        <v>0.7002457002457002</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7066160901733066</v>
+        <v>0.7225281798321268</v>
       </c>
     </row>
     <row r="15">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1309,13 +1309,13 @@
         <v>128</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6685236768802229</v>
+        <v>0.5801526717557252</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5896805896805897</v>
+        <v>0.7469287469287469</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7011207243670587</v>
+        <v>0.7385846013608186</v>
       </c>
     </row>
     <row r="16">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1366,13 +1366,13 @@
         <v>128</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6339712918660287</v>
+        <v>0.6417582417582418</v>
       </c>
       <c r="P16" t="n">
-        <v>0.6511056511056511</v>
+        <v>0.7174447174447175</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7134148856867915</v>
+        <v>0.7066546155058819</v>
       </c>
     </row>
     <row r="17">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1423,13 +1423,13 @@
         <v>128</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6263498920086393</v>
+        <v>0.6247139588100686</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7125307125307125</v>
+        <v>0.6707616707616708</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.7119238646134086</v>
+        <v>0.7138314076091932</v>
       </c>
     </row>
     <row r="18">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1480,13 +1480,13 @@
         <v>128</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6266375545851528</v>
+        <v>0.6614583333333334</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7051597051597052</v>
+        <v>0.6240786240786241</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7145715734233027</v>
+        <v>0.7060324280158333</v>
       </c>
     </row>
     <row r="19">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1537,13 +1537,13 @@
         <v>128</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6487804878048781</v>
+        <v>0.6374695863746959</v>
       </c>
       <c r="P19" t="n">
-        <v>0.6535626535626535</v>
+        <v>0.6437346437346437</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.7056868662004886</v>
+        <v>0.7107842569765838</v>
       </c>
     </row>
     <row r="20">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1594,13 +1594,13 @@
         <v>128</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6741573033707865</v>
+        <v>0.6391304347826087</v>
       </c>
       <c r="P20" t="n">
-        <v>0.5896805896805897</v>
+        <v>0.7223587223587223</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.6983304495396822</v>
+        <v>0.707314061600229</v>
       </c>
     </row>
     <row r="21">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1651,13 +1651,13 @@
         <v>128</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6327800829875518</v>
+        <v>0.6090373280943026</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7493857493857494</v>
+        <v>0.7616707616707616</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7104478001594543</v>
+        <v>0.7231893161068792</v>
       </c>
     </row>
     <row r="22">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1708,13 +1708,13 @@
         <v>128</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.6203904555314533</v>
       </c>
       <c r="P22" t="n">
-        <v>0.7346437346437347</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7159661536631376</v>
+        <v>0.7162233616994775</v>
       </c>
     </row>
     <row r="23">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1765,13 +1765,13 @@
         <v>128</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6401869158878505</v>
+        <v>0.5995670995670995</v>
       </c>
       <c r="P23" t="n">
-        <v>0.6732186732186732</v>
+        <v>0.6805896805896806</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.7093695604282877</v>
+        <v>0.729032331964244</v>
       </c>
     </row>
     <row r="24">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1822,13 +1822,13 @@
         <v>128</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6709511568123393</v>
+        <v>0.5983772819472617</v>
       </c>
       <c r="P24" t="n">
-        <v>0.6412776412776413</v>
+        <v>0.7248157248157249</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6966079032939413</v>
+        <v>0.7270367969637331</v>
       </c>
     </row>
     <row r="25">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1879,13 +1879,13 @@
         <v>128</v>
       </c>
       <c r="O25" t="n">
-        <v>0.615546218487395</v>
+        <v>0.6506329113924051</v>
       </c>
       <c r="P25" t="n">
-        <v>0.7199017199017199</v>
+        <v>0.6314496314496314</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.7186198633650075</v>
+        <v>0.7050902967867644</v>
       </c>
     </row>
     <row r="26">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1936,13 +1936,13 @@
         <v>128</v>
       </c>
       <c r="O26" t="n">
-        <v>0.618510158013544</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P26" t="n">
-        <v>0.6732186732186732</v>
+        <v>0.6683046683046683</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.7220850996349168</v>
+        <v>0.6968921536984651</v>
       </c>
     </row>
     <row r="27">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1993,13 +1993,13 @@
         <v>128</v>
       </c>
       <c r="O27" t="n">
-        <v>0.6473551637279596</v>
+        <v>0.5842911877394636</v>
       </c>
       <c r="P27" t="n">
-        <v>0.6314496314496314</v>
+        <v>0.7493857493857494</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7093480177547621</v>
+        <v>0.7369322486545729</v>
       </c>
     </row>
     <row r="28">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2050,13 +2050,13 @@
         <v>128</v>
       </c>
       <c r="O28" t="n">
-        <v>0.6230248306997742</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="P28" t="n">
-        <v>0.6781326781326781</v>
+        <v>0.6388206388206388</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.7172511826390805</v>
+        <v>0.688185891897782</v>
       </c>
     </row>
     <row r="29">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2107,13 +2107,13 @@
         <v>128</v>
       </c>
       <c r="O29" t="n">
-        <v>0.6300448430493274</v>
+        <v>0.6289592760180995</v>
       </c>
       <c r="P29" t="n">
-        <v>0.6904176904176904</v>
+        <v>0.683046683046683</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.7119571628777878</v>
+        <v>0.7120558153028074</v>
       </c>
     </row>
     <row r="30">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2164,13 +2164,13 @@
         <v>128</v>
       </c>
       <c r="O30" t="n">
-        <v>0.6584766584766585</v>
+        <v>0.6168831168831169</v>
       </c>
       <c r="P30" t="n">
-        <v>0.6584766584766585</v>
+        <v>0.7002457002457002</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7021394641503044</v>
+        <v>0.7197237569352855</v>
       </c>
     </row>
     <row r="31">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2221,13 +2221,13 @@
         <v>128</v>
       </c>
       <c r="O31" t="n">
-        <v>0.6633165829145728</v>
+        <v>0.5988142292490118</v>
       </c>
       <c r="P31" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.7444717444717445</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.7018215967261273</v>
+        <v>0.7254847889361175</v>
       </c>
     </row>
     <row r="32">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2278,13 +2278,13 @@
         <v>128</v>
       </c>
       <c r="O32" t="n">
-        <v>0.6102040816326531</v>
+        <v>0.6109725685785536</v>
       </c>
       <c r="P32" t="n">
-        <v>0.7346437346437347</v>
+        <v>0.601965601965602</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.717902814305347</v>
+        <v>0.7242953378221263</v>
       </c>
     </row>
     <row r="33">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2335,13 +2335,13 @@
         <v>128</v>
       </c>
       <c r="O33" t="n">
-        <v>0.5776031434184676</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7223587223587223</v>
+        <v>0.6928746928746928</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7390402622844862</v>
+        <v>0.7153712210447892</v>
       </c>
     </row>
     <row r="34">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2392,13 +2392,13 @@
         <v>128</v>
       </c>
       <c r="O34" t="n">
-        <v>0.6112266112266113</v>
+        <v>0.6367924528301887</v>
       </c>
       <c r="P34" t="n">
-        <v>0.7223587223587223</v>
+        <v>0.6633906633906634</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.7238818142725074</v>
+        <v>0.7110276735347251</v>
       </c>
     </row>
     <row r="35">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2449,13 +2449,13 @@
         <v>128</v>
       </c>
       <c r="O35" t="n">
-        <v>0.6293532338308457</v>
+        <v>0.6148491879350348</v>
       </c>
       <c r="P35" t="n">
-        <v>0.6216216216216216</v>
+        <v>0.6511056511056511</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7136571220729662</v>
+        <v>0.7213915866354238</v>
       </c>
     </row>
     <row r="36">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2506,13 +2506,13 @@
         <v>128</v>
       </c>
       <c r="O36" t="n">
-        <v>0.6869806094182825</v>
+        <v>0.6086065573770492</v>
       </c>
       <c r="P36" t="n">
-        <v>0.6093366093366094</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.6950179493945577</v>
+        <v>0.7234530205311982</v>
       </c>
     </row>
     <row r="37">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2563,13 +2563,13 @@
         <v>128</v>
       </c>
       <c r="O37" t="n">
-        <v>0.6100917431192661</v>
+        <v>0.5950920245398773</v>
       </c>
       <c r="P37" t="n">
-        <v>0.6535626535626535</v>
+        <v>0.714987714987715</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.7182326296101446</v>
+        <v>0.7278337753337363</v>
       </c>
     </row>
     <row r="38">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2620,13 +2620,13 @@
         <v>128</v>
       </c>
       <c r="O38" t="n">
-        <v>0.625560538116592</v>
+        <v>0.6048387096774194</v>
       </c>
       <c r="P38" t="n">
-        <v>0.6855036855036855</v>
+        <v>0.7371007371007371</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.7175539747528408</v>
+        <v>0.7230478867240574</v>
       </c>
     </row>
     <row r="39">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2677,13 +2677,13 @@
         <v>128</v>
       </c>
       <c r="O39" t="n">
-        <v>0.6137667304015296</v>
+        <v>0.5821167883211679</v>
       </c>
       <c r="P39" t="n">
-        <v>0.7886977886977887</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7189681073893671</v>
+        <v>0.7349667590597402</v>
       </c>
     </row>
     <row r="40">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2734,13 +2734,13 @@
         <v>128</v>
       </c>
       <c r="O40" t="n">
-        <v>0.6703601108033241</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="P40" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.7001795431841975</v>
+        <v>0.7136668993079144</v>
       </c>
     </row>
     <row r="41">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2791,13 +2791,13 @@
         <v>128</v>
       </c>
       <c r="O41" t="n">
-        <v>0.6284403669724771</v>
+        <v>0.6312217194570136</v>
       </c>
       <c r="P41" t="n">
-        <v>0.6732186732186732</v>
+        <v>0.6855036855036855</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.7152787291485331</v>
+        <v>0.711048326284989</v>
       </c>
     </row>
     <row r="42">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2848,13 +2848,13 @@
         <v>128</v>
       </c>
       <c r="O42" t="n">
-        <v>0.6180371352785146</v>
+        <v>0.583984375</v>
       </c>
       <c r="P42" t="n">
-        <v>0.5724815724815725</v>
+        <v>0.7346437346437347</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7175253655599512</v>
+        <v>0.7383787149968355</v>
       </c>
     </row>
     <row r="43">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2905,13 +2905,13 @@
         <v>128</v>
       </c>
       <c r="O43" t="n">
-        <v>0.6337719298245614</v>
+        <v>0.5852713178294574</v>
       </c>
       <c r="P43" t="n">
-        <v>0.7100737100737101</v>
+        <v>0.742014742014742</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.7103308444437774</v>
+        <v>0.7354603357937025</v>
       </c>
     </row>
     <row r="44">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2962,13 +2962,13 @@
         <v>128</v>
       </c>
       <c r="O44" t="n">
-        <v>0.6246786632390745</v>
+        <v>0.5981308411214953</v>
       </c>
       <c r="P44" t="n">
-        <v>0.597051597051597</v>
+        <v>0.7862407862407862</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.7174909866374471</v>
+        <v>0.7262870472410451</v>
       </c>
     </row>
     <row r="45">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3019,13 +3019,13 @@
         <v>128</v>
       </c>
       <c r="O45" t="n">
-        <v>0.6282973621103117</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="P45" t="n">
-        <v>0.6437346437346437</v>
+        <v>0.7076167076167076</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7141148240669913</v>
+        <v>0.7030604844507964</v>
       </c>
     </row>
     <row r="46">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3076,13 +3076,13 @@
         <v>128</v>
       </c>
       <c r="O46" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6440281030444965</v>
       </c>
       <c r="P46" t="n">
-        <v>0.7567567567567568</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.7206096768379211</v>
+        <v>0.7107954600582952</v>
       </c>
     </row>
     <row r="47">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3133,13 +3133,13 @@
         <v>128</v>
       </c>
       <c r="O47" t="n">
-        <v>0.6393034825870647</v>
+        <v>0.6397058823529411</v>
       </c>
       <c r="P47" t="n">
-        <v>0.6314496314496314</v>
+        <v>0.6412776412776413</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.7110971409341563</v>
+        <v>0.7082758597705675</v>
       </c>
     </row>
     <row r="48">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3190,13 +3190,13 @@
         <v>128</v>
       </c>
       <c r="O48" t="n">
-        <v>0.6713091922005571</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="P48" t="n">
-        <v>0.5921375921375921</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.7003666841465493</v>
+        <v>0.7107336313828178</v>
       </c>
     </row>
     <row r="49">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3247,13 +3247,13 @@
         <v>128</v>
       </c>
       <c r="O49" t="n">
-        <v>0.6384439359267735</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="P49" t="n">
-        <v>0.6855036855036855</v>
+        <v>0.6707616707616708</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.7119676978691765</v>
+        <v>0.7177376954451852</v>
       </c>
     </row>
     <row r="50">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3304,13 +3304,13 @@
         <v>128</v>
       </c>
       <c r="O50" t="n">
-        <v>0.6658536585365854</v>
+        <v>0.6813471502590673</v>
       </c>
       <c r="P50" t="n">
-        <v>0.6707616707616708</v>
+        <v>0.6461916461916462</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.6972453874090444</v>
+        <v>0.6940507354943649</v>
       </c>
     </row>
     <row r="51">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3361,13 +3361,13 @@
         <v>128</v>
       </c>
       <c r="O51" t="n">
-        <v>0.6181818181818182</v>
+        <v>0.6293995859213251</v>
       </c>
       <c r="P51" t="n">
-        <v>0.7518427518427518</v>
+        <v>0.7469287469287469</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.7159984661185224</v>
+        <v>0.7131399320519489</v>
       </c>
     </row>
     <row r="52">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3418,13 +3418,13 @@
         <v>128</v>
       </c>
       <c r="O52" t="n">
-        <v>0.6242171189979123</v>
+        <v>0.6093023255813953</v>
       </c>
       <c r="P52" t="n">
-        <v>0.7346437346437347</v>
+        <v>0.6437346437346437</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.7130618048750836</v>
+        <v>0.7222654638083085</v>
       </c>
     </row>
     <row r="53">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3475,13 +3475,13 @@
         <v>128</v>
       </c>
       <c r="O53" t="n">
-        <v>0.6032388663967612</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="P53" t="n">
-        <v>0.7321867321867321</v>
+        <v>0.7051597051597052</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.7281223737675211</v>
+        <v>0.7135380122972571</v>
       </c>
     </row>
     <row r="54">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3532,13 +3532,13 @@
         <v>128</v>
       </c>
       <c r="O54" t="n">
-        <v>0.6277533039647577</v>
+        <v>0.654639175257732</v>
       </c>
       <c r="P54" t="n">
-        <v>0.7002457002457002</v>
+        <v>0.6240786240786241</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.7138281293537305</v>
+        <v>0.7039544245471125</v>
       </c>
     </row>
     <row r="55">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3589,13 +3589,13 @@
         <v>128</v>
       </c>
       <c r="O55" t="n">
-        <v>0.6179775280898876</v>
+        <v>0.621978021978022</v>
       </c>
       <c r="P55" t="n">
-        <v>0.6756756756756757</v>
+        <v>0.6953316953316954</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.7181987892026487</v>
+        <v>0.7183892172315847</v>
       </c>
     </row>
     <row r="56">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3646,13 +3646,13 @@
         <v>128</v>
       </c>
       <c r="O56" t="n">
-        <v>0.6920289855072463</v>
+        <v>0.6434108527131783</v>
       </c>
       <c r="P56" t="n">
-        <v>0.4692874692874693</v>
+        <v>0.6117936117936118</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.7003232297690019</v>
+        <v>0.7098106866297514</v>
       </c>
     </row>
     <row r="57">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3703,13 +3703,13 @@
         <v>128</v>
       </c>
       <c r="O57" t="n">
-        <v>0.6533665835411472</v>
+        <v>0.5698924731182796</v>
       </c>
       <c r="P57" t="n">
-        <v>0.6437346437346437</v>
+        <v>0.7813267813267813</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.7052912769110307</v>
+        <v>0.7456413253493931</v>
       </c>
     </row>
     <row r="58">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3760,13 +3760,13 @@
         <v>128</v>
       </c>
       <c r="O58" t="n">
-        <v>0.6504854368932039</v>
+        <v>0.5991649269311065</v>
       </c>
       <c r="P58" t="n">
-        <v>0.6584766584766585</v>
+        <v>0.7051597051597052</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.7018484089685523</v>
+        <v>0.7301735323408376</v>
       </c>
     </row>
     <row r="59">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3817,13 +3817,13 @@
         <v>128</v>
       </c>
       <c r="O59" t="n">
-        <v>0.6042105263157894</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="P59" t="n">
-        <v>0.7051597051597052</v>
+        <v>0.7076167076167076</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.7228371511334958</v>
+        <v>0.7139982467112334</v>
       </c>
     </row>
     <row r="60">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3874,13 +3874,13 @@
         <v>128</v>
       </c>
       <c r="O60" t="n">
-        <v>0.5783898305084746</v>
+        <v>0.6099585062240664</v>
       </c>
       <c r="P60" t="n">
-        <v>0.6707616707616708</v>
+        <v>0.7223587223587223</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.7386340975761414</v>
+        <v>0.7180487534274226</v>
       </c>
     </row>
     <row r="61">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3931,13 +3931,13 @@
         <v>128</v>
       </c>
       <c r="O61" t="n">
-        <v>0.6284403669724771</v>
+        <v>0.6547619047619048</v>
       </c>
       <c r="P61" t="n">
-        <v>0.6732186732186732</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.7129163446633712</v>
+        <v>0.7002548020818959</v>
       </c>
     </row>
     <row r="62">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3988,13 +3988,13 @@
         <v>128</v>
       </c>
       <c r="O62" t="n">
-        <v>0.6677740863787376</v>
+        <v>0.6203090507726269</v>
       </c>
       <c r="P62" t="n">
-        <v>0.4938574938574938</v>
+        <v>0.6904176904176904</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.7075809183328048</v>
+        <v>0.7176940746929334</v>
       </c>
     </row>
     <row r="63">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4045,13 +4045,13 @@
         <v>128</v>
       </c>
       <c r="O63" t="n">
-        <v>0.6906666666666667</v>
+        <v>0.6021276595744681</v>
       </c>
       <c r="P63" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6953316953316954</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.6912851162578748</v>
+        <v>0.7252954343090887</v>
       </c>
     </row>
     <row r="64">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4102,13 +4102,13 @@
         <v>128</v>
       </c>
       <c r="O64" t="n">
-        <v>0.6411483253588517</v>
+        <v>0.6705539358600583</v>
       </c>
       <c r="P64" t="n">
-        <v>0.6584766584766585</v>
+        <v>0.5651105651105651</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.7083672331727069</v>
+        <v>0.7022122517876003</v>
       </c>
     </row>
     <row r="65">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4159,13 +4159,13 @@
         <v>128</v>
       </c>
       <c r="O65" t="n">
-        <v>0.6247139588100686</v>
+        <v>0.6213991769547325</v>
       </c>
       <c r="P65" t="n">
-        <v>0.6707616707616708</v>
+        <v>0.742014742014742</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.7163358113040095</v>
+        <v>0.7143523428751075</v>
       </c>
     </row>
     <row r="66">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4216,13 +4216,13 @@
         <v>128</v>
       </c>
       <c r="O66" t="n">
-        <v>0.6240963855421687</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="P66" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6855036855036855</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.7176672230596127</v>
+        <v>0.7108373963314554</v>
       </c>
     </row>
     <row r="67">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4273,13 +4273,13 @@
         <v>128</v>
       </c>
       <c r="O67" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6918918918918919</v>
       </c>
       <c r="P67" t="n">
-        <v>0.7174447174447175</v>
+        <v>0.628992628992629</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.7350571927816971</v>
+        <v>0.6915741355522819</v>
       </c>
     </row>
     <row r="68">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4330,13 +4330,13 @@
         <v>128</v>
       </c>
       <c r="O68" t="n">
-        <v>0.6007984031936128</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="P68" t="n">
-        <v>0.7395577395577395</v>
+        <v>0.7493857493857494</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.726616995230965</v>
+        <v>0.6994658724121425</v>
       </c>
     </row>
     <row r="69">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4387,13 +4387,13 @@
         <v>128</v>
       </c>
       <c r="O69" t="n">
-        <v>0.5804597701149425</v>
+        <v>0.6452380952380953</v>
       </c>
       <c r="P69" t="n">
-        <v>0.7444717444717445</v>
+        <v>0.6658476658476659</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.7374817138132842</v>
+        <v>0.7110035331352897</v>
       </c>
     </row>
     <row r="70">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4444,13 +4444,13 @@
         <v>128</v>
       </c>
       <c r="O70" t="n">
-        <v>0.6721311475409836</v>
+        <v>0.5666104553119731</v>
       </c>
       <c r="P70" t="n">
-        <v>0.6044226044226044</v>
+        <v>0.8255528255528255</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.6968859874683878</v>
+        <v>0.7502258409624515</v>
       </c>
     </row>
     <row r="71">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4501,13 +4501,13 @@
         <v>128</v>
       </c>
       <c r="O71" t="n">
-        <v>0.6007462686567164</v>
+        <v>0.6155717761557178</v>
       </c>
       <c r="P71" t="n">
-        <v>0.7911547911547911</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.7271111462427222</v>
+        <v>0.7134464585262796</v>
       </c>
     </row>
     <row r="72">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4558,13 +4558,13 @@
         <v>128</v>
       </c>
       <c r="O72" t="n">
-        <v>0.6179245283018868</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="P72" t="n">
-        <v>0.6437346437346437</v>
+        <v>0.4914004914004914</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.7213350150896155</v>
+        <v>0.6967465939729111</v>
       </c>
     </row>
     <row r="73">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4615,13 +4615,13 @@
         <v>128</v>
       </c>
       <c r="O73" t="n">
-        <v>0.5772058823529411</v>
+        <v>0.6117381489841986</v>
       </c>
       <c r="P73" t="n">
-        <v>0.7714987714987716</v>
+        <v>0.6658476658476659</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.7399633153625157</v>
+        <v>0.7234372693559398</v>
       </c>
     </row>
     <row r="74">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4672,13 +4672,13 @@
         <v>128</v>
       </c>
       <c r="O74" t="n">
-        <v>0.6099009900990099</v>
+        <v>0.6007604562737643</v>
       </c>
       <c r="P74" t="n">
-        <v>0.7567567567567568</v>
+        <v>0.7764127764127764</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.7196634142295174</v>
+        <v>0.7271804026935411</v>
       </c>
     </row>
     <row r="75">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4729,13 +4729,13 @@
         <v>128</v>
       </c>
       <c r="O75" t="n">
-        <v>0.6902654867256637</v>
+        <v>0.6072796934865901</v>
       </c>
       <c r="P75" t="n">
-        <v>0.5749385749385749</v>
+        <v>0.7788697788697788</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.6957298848939979</v>
+        <v>0.72351161500682</v>
       </c>
     </row>
     <row r="76">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4786,13 +4786,13 @@
         <v>128</v>
       </c>
       <c r="O76" t="n">
-        <v>0.6226415094339622</v>
+        <v>0.5725490196078431</v>
       </c>
       <c r="P76" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.7174447174447175</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.7182842353115911</v>
+        <v>0.7446449792903402</v>
       </c>
     </row>
     <row r="77">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -4843,13 +4843,13 @@
         <v>128</v>
       </c>
       <c r="O77" t="n">
-        <v>0.6208251473477406</v>
+        <v>0.6658097686375322</v>
       </c>
       <c r="P77" t="n">
-        <v>0.7764127764127764</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.7160332959631215</v>
+        <v>0.7013602153114651</v>
       </c>
     </row>
     <row r="78">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4900,13 +4900,13 @@
         <v>128</v>
       </c>
       <c r="O78" t="n">
-        <v>0.6271186440677966</v>
+        <v>0.5403225806451613</v>
       </c>
       <c r="P78" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.8230958230958231</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.7151015452716661</v>
+        <v>0.766817771870157</v>
       </c>
     </row>
     <row r="79">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -4957,13 +4957,13 @@
         <v>128</v>
       </c>
       <c r="O79" t="n">
-        <v>0.6234817813765182</v>
+        <v>0.6023166023166023</v>
       </c>
       <c r="P79" t="n">
-        <v>0.7567567567567568</v>
+        <v>0.7665847665847666</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.7153874760088713</v>
+        <v>0.7263674974441529</v>
       </c>
     </row>
     <row r="80">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5014,13 +5014,13 @@
         <v>128</v>
       </c>
       <c r="O80" t="n">
-        <v>0.6583541147132169</v>
+        <v>0.6692307692307692</v>
       </c>
       <c r="P80" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.6412776412776413</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.7016859552134638</v>
+        <v>0.6988699120023977</v>
       </c>
     </row>
     <row r="81">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5071,13 +5071,13 @@
         <v>128</v>
       </c>
       <c r="O81" t="n">
-        <v>0.6044624746450304</v>
+        <v>0.6339712918660287</v>
       </c>
       <c r="P81" t="n">
-        <v>0.7321867321867321</v>
+        <v>0.6511056511056511</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.7224790941114011</v>
+        <v>0.711194534405418</v>
       </c>
     </row>
     <row r="82">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5128,13 +5128,13 @@
         <v>128</v>
       </c>
       <c r="O82" t="n">
-        <v>0.5968992248062015</v>
+        <v>0.6823204419889503</v>
       </c>
       <c r="P82" t="n">
-        <v>0.7567567567567568</v>
+        <v>0.6068796068796068</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.7283162163651508</v>
+        <v>0.694578090439672</v>
       </c>
     </row>
     <row r="83">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5185,13 +5185,13 @@
         <v>128</v>
       </c>
       <c r="O83" t="n">
-        <v>0.6991150442477876</v>
+        <v>0.6814159292035398</v>
       </c>
       <c r="P83" t="n">
-        <v>0.5823095823095823</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.6905728340148926</v>
+        <v>0.6967183304869611</v>
       </c>
     </row>
     <row r="84">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5242,13 +5242,13 @@
         <v>128</v>
       </c>
       <c r="O84" t="n">
-        <v>0.6596858638743456</v>
+        <v>0.6569148936170213</v>
       </c>
       <c r="P84" t="n">
-        <v>0.6191646191646192</v>
+        <v>0.6068796068796068</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.703368718209474</v>
+        <v>0.7051600165989088</v>
       </c>
     </row>
     <row r="85">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5299,13 +5299,13 @@
         <v>128</v>
       </c>
       <c r="O85" t="n">
-        <v>0.68</v>
+        <v>0.6146788990825688</v>
       </c>
       <c r="P85" t="n">
-        <v>0.6265356265356266</v>
+        <v>0.6584766584766585</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.6995206293852433</v>
+        <v>0.7211313968119414</v>
       </c>
     </row>
     <row r="86">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5356,13 +5356,13 @@
         <v>128</v>
       </c>
       <c r="O86" t="n">
-        <v>0.5962343096234309</v>
+        <v>0.66</v>
       </c>
       <c r="P86" t="n">
-        <v>0.7002457002457002</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.7291985325191332</v>
+        <v>0.7004895448684693</v>
       </c>
     </row>
     <row r="87">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5413,13 +5413,13 @@
         <v>128</v>
       </c>
       <c r="O87" t="n">
-        <v>0.5457809694793537</v>
+        <v>0.6345733041575492</v>
       </c>
       <c r="P87" t="n">
-        <v>0.7469287469287469</v>
+        <v>0.7125307125307125</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.7545874243197234</v>
+        <v>0.7084653087284254</v>
       </c>
     </row>
     <row r="88">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5470,13 +5470,13 @@
         <v>128</v>
       </c>
       <c r="O88" t="n">
-        <v>0.6331236897274634</v>
+        <v>0.6210526315789474</v>
       </c>
       <c r="P88" t="n">
-        <v>0.742014742014742</v>
+        <v>0.7248157248157249</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.705613620903181</v>
+        <v>0.716863317074983</v>
       </c>
     </row>
     <row r="89">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5527,13 +5527,13 @@
         <v>128</v>
       </c>
       <c r="O89" t="n">
-        <v>0.6235827664399093</v>
+        <v>0.6914600550964187</v>
       </c>
       <c r="P89" t="n">
-        <v>0.6756756756756757</v>
+        <v>0.6167076167076168</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.7172777160354282</v>
+        <v>0.6930218307868294</v>
       </c>
     </row>
     <row r="90">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5584,13 +5584,13 @@
         <v>128</v>
       </c>
       <c r="O90" t="n">
-        <v>0.6181434599156118</v>
+        <v>0.6086105675146771</v>
       </c>
       <c r="P90" t="n">
-        <v>0.7199017199017199</v>
+        <v>0.7641277641277642</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.7186108091603155</v>
+        <v>0.719445174155028</v>
       </c>
     </row>
     <row r="91">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5641,13 +5641,13 @@
         <v>128</v>
       </c>
       <c r="O91" t="n">
-        <v>0.6619047619047619</v>
+        <v>0.5589285714285714</v>
       </c>
       <c r="P91" t="n">
-        <v>0.683046683046683</v>
+        <v>0.769041769041769</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.7009855171908503</v>
+        <v>0.7466953474542369</v>
       </c>
     </row>
     <row r="92">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5698,13 +5698,13 @@
         <v>128</v>
       </c>
       <c r="O92" t="n">
-        <v>0.6273291925465838</v>
+        <v>0.6708074534161491</v>
       </c>
       <c r="P92" t="n">
-        <v>0.7444717444717445</v>
+        <v>0.5307125307125307</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.7141207560248997</v>
+        <v>0.7028275277303613</v>
       </c>
     </row>
     <row r="93">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5755,13 +5755,13 @@
         <v>128</v>
       </c>
       <c r="O93" t="n">
-        <v>0.6036217303822937</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="P93" t="n">
-        <v>0.7371007371007371</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.7261148965877036</v>
+        <v>0.6996732893197433</v>
       </c>
     </row>
     <row r="94">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -5812,13 +5812,13 @@
         <v>128</v>
       </c>
       <c r="O94" t="n">
-        <v>0.7167630057803468</v>
+        <v>0.6862170087976539</v>
       </c>
       <c r="P94" t="n">
-        <v>0.6093366093366094</v>
+        <v>0.5749385749385749</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.6857379742290662</v>
+        <v>0.6950735470523005</v>
       </c>
     </row>
     <row r="95">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -5869,13 +5869,13 @@
         <v>128</v>
       </c>
       <c r="O95" t="n">
-        <v>0.6145833333333334</v>
+        <v>0.6094420600858369</v>
       </c>
       <c r="P95" t="n">
-        <v>0.7248157248157249</v>
+        <v>0.6977886977886978</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.7209353747575179</v>
+        <v>0.7213843848394311</v>
       </c>
     </row>
     <row r="96">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -5926,13 +5926,13 @@
         <v>128</v>
       </c>
       <c r="O96" t="n">
-        <v>0.5966981132075472</v>
+        <v>0.6195121951219512</v>
       </c>
       <c r="P96" t="n">
-        <v>0.6216216216216216</v>
+        <v>0.6240786240786241</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.7289679195569909</v>
+        <v>0.7232262025708738</v>
       </c>
     </row>
     <row r="97">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -5983,13 +5983,13 @@
         <v>128</v>
       </c>
       <c r="O97" t="n">
-        <v>0.6422976501305483</v>
+        <v>0.6443914081145584</v>
       </c>
       <c r="P97" t="n">
-        <v>0.6044226044226044</v>
+        <v>0.6633906633906634</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.7090205560559811</v>
+        <v>0.7083549851956574</v>
       </c>
     </row>
     <row r="98">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6040,13 +6040,13 @@
         <v>128</v>
       </c>
       <c r="O98" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6830601092896175</v>
       </c>
       <c r="P98" t="n">
-        <v>0.7665847665847666</v>
+        <v>0.6142506142506142</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.7177368469860242</v>
+        <v>0.696502637344858</v>
       </c>
     </row>
     <row r="99">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6097,13 +6097,13 @@
         <v>128</v>
       </c>
       <c r="O99" t="n">
-        <v>0.6580976863753213</v>
+        <v>0.6579634464751958</v>
       </c>
       <c r="P99" t="n">
-        <v>0.628992628992629</v>
+        <v>0.6191646191646192</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.7029294993566431</v>
+        <v>0.7065208689026211</v>
       </c>
     </row>
     <row r="100">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -6154,13 +6154,13 @@
         <v>128</v>
       </c>
       <c r="O100" t="n">
-        <v>0.6359832635983264</v>
+        <v>0.6596858638743456</v>
       </c>
       <c r="P100" t="n">
-        <v>0.7469287469287469</v>
+        <v>0.6191646191646192</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.7094909642053687</v>
+        <v>0.7021299439927806</v>
       </c>
     </row>
     <row r="101">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6211,13 +6211,13 @@
         <v>128</v>
       </c>
       <c r="O101" t="n">
-        <v>0.6157112526539278</v>
+        <v>0.6490825688073395</v>
       </c>
       <c r="P101" t="n">
-        <v>0.7125307125307125</v>
+        <v>0.6953316953316954</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.7201814610025157</v>
+        <v>0.7060289357019507</v>
       </c>
     </row>
   </sheetData>
